--- a/data/master-1.xlsx
+++ b/data/master-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogwata/dev/pub-support/murakami-shinkan/works/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C087D6A0-2F5F-4A4F-B065-DAAA1B438F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{812E9195-5318-DA41-9013-3415B290E2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1360" windowWidth="42480" windowHeight="24820" xr2:uid="{9127189E-5329-9E46-BAE5-6A2FB8839EAE}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="36840" windowHeight="28300" xr2:uid="{9127189E-5329-9E46-BAE5-6A2FB8839EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="master-1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,53 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B526C286-0D9C-2D4E-8FAD-D406B45A74A1}</author>
+    <author>tc={015B2A4B-DB46-884C-AA3D-EB5A29E6397F}</author>
+    <author>tc={9AC97B73-A3F0-224F-8857-3FF8E2FBB2AC}</author>
+    <author>tc={3B3AB69A-7BD9-F349-B0C4-03D23E669FED}</author>
+  </authors>
+  <commentList>
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{B526C286-0D9C-2D4E-8FAD-D406B45A74A1}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    「」不要？</t>
+      </text>
+    </comment>
+    <comment ref="F72" authorId="1" shapeId="0" xr:uid="{015B2A4B-DB46-884C-AA3D-EB5A29E6397F}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    「バハ」の「ハ」は捨仮名</t>
+      </text>
+    </comment>
+    <comment ref="F117" authorId="2" shapeId="0" xr:uid="{9AC97B73-A3F0-224F-8857-3FF8E2FBB2AC}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    「ィ ー」を「ィー」に。（不要なスペースが入っている）</t>
+      </text>
+    </comment>
+    <comment ref="F124" authorId="3" shapeId="0" xr:uid="{3B3AB69A-7BD9-F349-B0C4-03D23E669FED}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    「ヴ ァ」に不要スペースあり</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="463">
   <si>
     <t>ProjectID</t>
   </si>
@@ -83,13 +128,1367 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>msk0010</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>msk0020</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>msk0030</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>msk0040</t>
+  </si>
+  <si>
+    <t>msk0050</t>
+  </si>
+  <si>
+    <t>msk0060</t>
+  </si>
+  <si>
+    <t>msk0070</t>
+  </si>
+  <si>
+    <t>msk0080</t>
+  </si>
+  <si>
+    <t>msk0090</t>
+  </si>
+  <si>
+    <t>msk0100</t>
+  </si>
+  <si>
+    <t>msk0110</t>
+  </si>
+  <si>
+    <t>msk0120</t>
+  </si>
+  <si>
+    <t>msk0130</t>
+  </si>
+  <si>
+    <t>msk0140</t>
+  </si>
+  <si>
+    <t>msk0150</t>
+  </si>
+  <si>
+    <t>msk0160</t>
+  </si>
+  <si>
+    <t>msk0170</t>
+  </si>
+  <si>
+    <t>msk0180</t>
+  </si>
+  <si>
+    <t>msk0190</t>
+  </si>
+  <si>
+    <t>msk0200</t>
+  </si>
+  <si>
+    <t>msk0210</t>
+  </si>
+  <si>
+    <t>msk0220</t>
+  </si>
+  <si>
+    <t>msk0230</t>
+  </si>
+  <si>
+    <t>msk0240</t>
+  </si>
+  <si>
+    <t>msk0250</t>
+  </si>
+  <si>
+    <t>msk0260</t>
+  </si>
+  <si>
+    <t>msk0270</t>
+  </si>
+  <si>
+    <t>msk0280</t>
+  </si>
+  <si>
+    <t>msk0290</t>
+  </si>
+  <si>
+    <t>msk0300</t>
+  </si>
+  <si>
+    <t>msk0310</t>
+  </si>
+  <si>
+    <t>msk0320</t>
+  </si>
+  <si>
+    <t>msk0330</t>
+  </si>
+  <si>
+    <t>msk0340</t>
+  </si>
+  <si>
+    <t>msk0350</t>
+  </si>
+  <si>
+    <t>msk0360</t>
+  </si>
+  <si>
+    <t>msk0370</t>
+  </si>
+  <si>
+    <t>msk0380</t>
+  </si>
+  <si>
+    <t>msk0390</t>
+  </si>
+  <si>
+    <t>msk0400</t>
+  </si>
+  <si>
+    <t>msk0410</t>
+  </si>
+  <si>
+    <t>msk0420</t>
+  </si>
+  <si>
+    <t>msk0430</t>
+  </si>
+  <si>
+    <t>msk0440</t>
+  </si>
+  <si>
+    <t>msk0450</t>
+  </si>
+  <si>
+    <t>msk0460</t>
+  </si>
+  <si>
+    <t>msk0470</t>
+  </si>
+  <si>
+    <t>msk0480</t>
+  </si>
+  <si>
+    <t>msk0490</t>
+  </si>
+  <si>
+    <t>msk0500</t>
+  </si>
+  <si>
+    <t>msk0510</t>
+  </si>
+  <si>
+    <t>msk0520</t>
+  </si>
+  <si>
+    <t>msk0530</t>
+  </si>
+  <si>
+    <t>msk0540</t>
+  </si>
+  <si>
+    <t>msk0550</t>
+  </si>
+  <si>
+    <t>msk0560</t>
+  </si>
+  <si>
+    <t>msk0570</t>
+  </si>
+  <si>
+    <t>msk0580</t>
+  </si>
+  <si>
+    <t>msk0590</t>
+  </si>
+  <si>
+    <t>msk0600</t>
+  </si>
+  <si>
+    <t>msk0610</t>
+  </si>
+  <si>
+    <t>msk0620</t>
+  </si>
+  <si>
+    <t>msk0630</t>
+  </si>
+  <si>
+    <t>msk0640</t>
+  </si>
+  <si>
+    <t>msk0650</t>
+  </si>
+  <si>
+    <t>msk0660</t>
+  </si>
+  <si>
+    <t>msk0670</t>
+  </si>
+  <si>
+    <t>msk0680</t>
+  </si>
+  <si>
+    <t>msk0690</t>
+  </si>
+  <si>
+    <t>msk0700</t>
+  </si>
+  <si>
+    <t>msk0710</t>
+  </si>
+  <si>
+    <t>msk0720</t>
+  </si>
+  <si>
+    <t>msk0730</t>
+  </si>
+  <si>
+    <t>msk0740</t>
+  </si>
+  <si>
+    <t>msk0750</t>
+  </si>
+  <si>
+    <t>msk0760</t>
+  </si>
+  <si>
+    <t>msk0770</t>
+  </si>
+  <si>
+    <t>msk0780</t>
+  </si>
+  <si>
+    <t>msk0790</t>
+  </si>
+  <si>
+    <t>msk0800</t>
+  </si>
+  <si>
+    <t>msk0810</t>
+  </si>
+  <si>
+    <t>msk0820</t>
+  </si>
+  <si>
+    <t>msk0830</t>
+  </si>
+  <si>
+    <t>msk0840</t>
+  </si>
+  <si>
+    <t>msk0850</t>
+  </si>
+  <si>
+    <t>msk0860</t>
+  </si>
+  <si>
+    <t>msk0870</t>
+  </si>
+  <si>
+    <t>msk0880</t>
+  </si>
+  <si>
+    <t>msk0890</t>
+  </si>
+  <si>
+    <t>msk0900</t>
+  </si>
+  <si>
+    <t>msk0910</t>
+  </si>
+  <si>
+    <t>msk0920</t>
+  </si>
+  <si>
+    <t>msk0930</t>
+  </si>
+  <si>
+    <t>msk0940</t>
+  </si>
+  <si>
+    <t>msk0950</t>
+  </si>
+  <si>
+    <t>msk0960</t>
+  </si>
+  <si>
+    <t>msk0970</t>
+  </si>
+  <si>
+    <t>msk0980</t>
+  </si>
+  <si>
+    <t>msk0990</t>
+  </si>
+  <si>
+    <t>msk1000</t>
+  </si>
+  <si>
+    <t>msk1010</t>
+  </si>
+  <si>
+    <t>msk1020</t>
+  </si>
+  <si>
+    <t>msk1030</t>
+  </si>
+  <si>
+    <t>msk1040</t>
+  </si>
+  <si>
+    <t>msk1050</t>
+  </si>
+  <si>
+    <t>msk1060</t>
+  </si>
+  <si>
+    <t>msk1070</t>
+  </si>
+  <si>
+    <t>msk1080</t>
+  </si>
+  <si>
+    <t>msk1090</t>
+  </si>
+  <si>
+    <t>msk1100</t>
+  </si>
+  <si>
+    <t>msk1110</t>
+  </si>
+  <si>
+    <t>msk1120</t>
+  </si>
+  <si>
+    <t>msk1130</t>
+  </si>
+  <si>
+    <t>msk1140</t>
+  </si>
+  <si>
+    <t>msk1150</t>
+  </si>
+  <si>
+    <t>msk1160</t>
+  </si>
+  <si>
+    <t>msk1170</t>
+  </si>
+  <si>
+    <t>msk1180</t>
+  </si>
+  <si>
+    <t>msk1190</t>
+  </si>
+  <si>
+    <t>msk1200</t>
+  </si>
+  <si>
+    <t>msk1210</t>
+  </si>
+  <si>
+    <t>msk1220</t>
+  </si>
+  <si>
+    <t>msk1230</t>
+  </si>
+  <si>
+    <t>msk1240</t>
+  </si>
+  <si>
+    <t>msk1250</t>
+  </si>
+  <si>
+    <t>msk1260</t>
+  </si>
+  <si>
+    <t>msk1270</t>
+  </si>
+  <si>
+    <t>msk1280</t>
+  </si>
+  <si>
+    <t>msk1290</t>
+  </si>
+  <si>
+    <t>msk1300</t>
+  </si>
+  <si>
+    <t>msk1310</t>
+  </si>
+  <si>
+    <t>msk1320</t>
+  </si>
+  <si>
+    <t>msk1330</t>
+  </si>
+  <si>
+    <t>msk1340</t>
+  </si>
+  <si>
+    <t>msk1350</t>
+  </si>
+  <si>
+    <t>msk1360</t>
+  </si>
+  <si>
+    <t>msk1370</t>
+  </si>
+  <si>
+    <t>msk1380</t>
+  </si>
+  <si>
+    <t>msk1390</t>
+  </si>
+  <si>
+    <t>msk1400</t>
+  </si>
+  <si>
+    <t>msk1410</t>
+  </si>
+  <si>
+    <t>msk1420</t>
+  </si>
+  <si>
+    <t>msk1430</t>
+  </si>
+  <si>
+    <t>msk1440</t>
+  </si>
+  <si>
+    <t>msk1450</t>
+  </si>
+  <si>
+    <t>msk1460</t>
+  </si>
+  <si>
+    <t>msk1470</t>
+  </si>
+  <si>
+    <t>msk1480</t>
+  </si>
+  <si>
+    <t>msk1490</t>
+  </si>
+  <si>
+    <t>msk1500</t>
+  </si>
+  <si>
+    <t>msk1510</t>
+  </si>
+  <si>
+    <t>msk1520</t>
+  </si>
+  <si>
+    <t>msk1530</t>
+  </si>
+  <si>
+    <t>msk1540</t>
+  </si>
+  <si>
+    <t>msk1550</t>
+  </si>
+  <si>
+    <t>msk1560</t>
+  </si>
+  <si>
+    <t>msk1570</t>
+  </si>
+  <si>
+    <t>msk1580</t>
+  </si>
+  <si>
+    <t>msk1590</t>
+  </si>
+  <si>
+    <t>msk1600</t>
+  </si>
+  <si>
+    <t>msk1610</t>
+  </si>
+  <si>
+    <t>msk1620</t>
+  </si>
+  <si>
+    <t>msk1630</t>
+  </si>
+  <si>
+    <t>msk1640</t>
+  </si>
+  <si>
+    <t>msk1650</t>
+  </si>
+  <si>
+    <t>msk1660</t>
+  </si>
+  <si>
+    <t>msk1670</t>
+  </si>
+  <si>
+    <t>msk1680</t>
+  </si>
+  <si>
+    <t>msk1690</t>
+  </si>
+  <si>
+    <t>msk1700</t>
+  </si>
+  <si>
+    <t>msk1710</t>
+  </si>
+  <si>
+    <t>msk1720</t>
+  </si>
+  <si>
+    <t>msk1730</t>
+  </si>
+  <si>
+    <t>msk1740</t>
+  </si>
+  <si>
+    <t>msk1750</t>
+  </si>
+  <si>
+    <t>msk1760</t>
+  </si>
+  <si>
+    <t>msk1770</t>
+  </si>
+  <si>
+    <t>msk1780</t>
+  </si>
+  <si>
+    <t>msk1790</t>
+  </si>
+  <si>
+    <t>msk1800</t>
+  </si>
+  <si>
+    <t>msk1810</t>
+  </si>
+  <si>
+    <t>msk1820</t>
+  </si>
+  <si>
+    <t>msk1830</t>
+  </si>
+  <si>
+    <t>msk1840</t>
+  </si>
+  <si>
+    <t>msk1850</t>
+  </si>
+  <si>
+    <t>msk1860</t>
+  </si>
+  <si>
+    <t>msk1870</t>
+  </si>
+  <si>
+    <t>msk1880</t>
+  </si>
+  <si>
+    <t>msk1890</t>
+  </si>
+  <si>
+    <t>msk1900</t>
+  </si>
+  <si>
+    <t>msk1910</t>
+  </si>
+  <si>
+    <t>msk1920</t>
+  </si>
+  <si>
+    <t>msk1930</t>
+  </si>
+  <si>
+    <t>msk1940</t>
+  </si>
+  <si>
+    <t>msk1950</t>
+  </si>
+  <si>
+    <t>msk1960</t>
+  </si>
+  <si>
+    <t>msk1970</t>
+  </si>
+  <si>
+    <t>msk1980</t>
+  </si>
+  <si>
+    <t>msk1990</t>
+  </si>
+  <si>
+    <t>msk2000</t>
+  </si>
+  <si>
+    <t>msk2010</t>
+  </si>
+  <si>
+    <t>msk2020</t>
+  </si>
+  <si>
+    <t>msk2030</t>
+  </si>
+  <si>
+    <t>msk2040</t>
+  </si>
+  <si>
+    <t>msk2050</t>
+  </si>
+  <si>
+    <t>msk2060</t>
+  </si>
+  <si>
+    <t>msk2070</t>
+  </si>
+  <si>
+    <t>msk2080</t>
+  </si>
+  <si>
+    <t>msk2090</t>
+  </si>
+  <si>
+    <t>msk2100</t>
+  </si>
+  <si>
+    <t>msk2110</t>
+  </si>
+  <si>
+    <t>msk2120</t>
+  </si>
+  <si>
+    <t>msk2130</t>
+  </si>
+  <si>
+    <t>msk2140</t>
+  </si>
+  <si>
+    <t>msk2150</t>
+  </si>
+  <si>
+    <t>msk2160</t>
+  </si>
+  <si>
+    <t>msk2170</t>
+  </si>
+  <si>
+    <t>msk2180</t>
+  </si>
+  <si>
+    <t>msk2190</t>
+  </si>
+  <si>
+    <t>msk2200</t>
+  </si>
+  <si>
+    <t>msk2210</t>
+  </si>
+  <si>
+    <t>msk2220</t>
+  </si>
+  <si>
+    <t>msk2230</t>
+  </si>
+  <si>
+    <t>msk2240</t>
+  </si>
+  <si>
+    <t>msk2250</t>
+  </si>
+  <si>
+    <t>msk2260</t>
+  </si>
+  <si>
+    <t>msk2270</t>
+  </si>
+  <si>
+    <t>阿含に於ける四梵住について</t>
+  </si>
+  <si>
+    <t>阿含に於ける生天思想の一断面</t>
+  </si>
+  <si>
+    <t>過去佛について</t>
+  </si>
+  <si>
+    <t>Mahāparinirvāṇasūtra（大般涅槃経）における二・三の問題</t>
+  </si>
+  <si>
+    <t>阿含ニカーヤの偈頌について</t>
+  </si>
+  <si>
+    <t>ベゼクリク第九号窟寺銘文による誓願画の考察</t>
+  </si>
+  <si>
+    <t>誓願について</t>
+  </si>
+  <si>
+    <t>Daśottarasūtra（十上経）について</t>
+  </si>
+  <si>
+    <t>因縁相応の梵文資料</t>
+  </si>
+  <si>
+    <t>Paṇidhi誓願</t>
+  </si>
+  <si>
+    <t>縁起成道説資料</t>
+  </si>
+  <si>
+    <t>Samādhirājasūtraの本文発達について</t>
+  </si>
+  <si>
+    <t>月燈三昧経における仏陀観</t>
+  </si>
+  <si>
+    <t>Samādhirājasūtra研究1</t>
+  </si>
+  <si>
+    <t>仏教における救いについて</t>
+  </si>
+  <si>
+    <t>Samādhirājasūtra 第一章，第十七章，第三十八-三十九章</t>
+  </si>
+  <si>
+    <t>月燈三昧経における戒の問題</t>
+  </si>
+  <si>
+    <t>Samādhirājasūtraの語彙研究</t>
+  </si>
+  <si>
+    <t>Samādhirājasūtraの成立について</t>
+  </si>
+  <si>
+    <t>前田恵学著『原始仏教聖典の成立史研究』における若干の問題について</t>
+  </si>
+  <si>
+    <t>慈悲・愛</t>
+  </si>
+  <si>
+    <t>Rāṣṭrapālaparipṛcchāの語彙</t>
+  </si>
+  <si>
+    <t>Pūrvayogaについて</t>
+  </si>
+  <si>
+    <t>佛伝としての過去現在因果経</t>
+  </si>
+  <si>
+    <t>阿含に関するサンスクリット資料について</t>
+  </si>
+  <si>
+    <t>Praśāntaviniścayaprātihāryasūtraについて</t>
+  </si>
+  <si>
+    <t>マイトリ・ウパニシャッドにおける無我について</t>
+  </si>
+  <si>
+    <t>原始仏教における愛と慈悲</t>
+  </si>
+  <si>
+    <t>Nirātmanとanātman</t>
+  </si>
+  <si>
+    <t>ヤージュニヤヴァルクヤのアートマン説と原始仏教</t>
+  </si>
+  <si>
+    <t>慈悲行の成立に関して</t>
+  </si>
+  <si>
+    <t>大乗における在家と出家の問題</t>
+  </si>
+  <si>
+    <t>Pūrvayoga（過去の因縁）</t>
+  </si>
+  <si>
+    <t>アートマンと光の表象</t>
+  </si>
+  <si>
+    <t>月燈三昧経と無量寿経</t>
+  </si>
+  <si>
+    <t>古ウパニシャドのアートマン（我）と原始仏教</t>
+  </si>
+  <si>
+    <t>サーンクャ（数論）の解脱の主体について</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学における解脱の問題</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学と無我の問題</t>
+  </si>
+  <si>
+    <t>サンスクリット本城邑経（nagara）</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学おけるプルシャ（霊我）の偏在と一・多の問題</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学と無我の問題（序説）</t>
+  </si>
+  <si>
+    <t>プルシャとアートマン</t>
+  </si>
+  <si>
+    <t>ヴァイシェーシカ・スートラにおけるアートマン</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学の霊我とヴェーダーンタ哲学の個我</t>
+  </si>
+  <si>
+    <t>いわゆるパンチャシカ断片（四）とヴェーダーンタ哲学の個我</t>
+  </si>
+  <si>
+    <t>山口恵照著『サーンキヤ哲学体系の展開　究極的な「転迷開悟」の道』（書評）</t>
+  </si>
+  <si>
+    <t>ヴァィシェーシカ哲学におけるアートマン存在の論証</t>
+  </si>
+  <si>
+    <t>ヴァィシェーシカ哲学のアートマン</t>
+  </si>
+  <si>
+    <t>Sāṃkhyakārikā註Jayamaṅgalā</t>
+  </si>
+  <si>
+    <t>プルシャとアートマン（2）</t>
+  </si>
+  <si>
+    <t>渇愛の滅と無所有</t>
+  </si>
+  <si>
+    <t>aṅguṣṭhamātra puruṣa（親指大のプルシャ）について</t>
+  </si>
+  <si>
+    <t>仏教における社会福祉の理念の原型</t>
+  </si>
+  <si>
+    <t>インド語</t>
+  </si>
+  <si>
+    <t>『玉城康四郎博士還暦記念論集　仏の研究』（書評）</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学における業、法・非法とヴァイシェーシカ哲学</t>
+  </si>
+  <si>
+    <t>四無量再考</t>
+  </si>
+  <si>
+    <t>雑阿含経（下）</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学と仏教</t>
+  </si>
+  <si>
+    <t>インドにおける哲学のはじめ</t>
+  </si>
+  <si>
+    <t>丸山孝雄『法華教学研究序説　吉蔵における受容と展開』（書評）</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学における業の問題</t>
+  </si>
+  <si>
+    <t>インド哲学における哲学の原語</t>
+  </si>
+  <si>
+    <t>五火二道説の展開</t>
+  </si>
+  <si>
+    <t>玉城康四郎先生の業績と学風</t>
+  </si>
+  <si>
+    <t>死後の運命と知と業</t>
+  </si>
+  <si>
+    <t>インド哲学史における心の発見</t>
+  </si>
+  <si>
+    <t>知行併合説（samuccaya-vāda）</t>
+  </si>
+  <si>
+    <t>マハーバハーラタと仏教（一）</t>
+  </si>
+  <si>
+    <t>Sannyāsa（捨離、遁世）考</t>
+  </si>
+  <si>
+    <t>無欲と無所有</t>
+  </si>
+  <si>
+    <t>江戸時代におけるインド哲学研究</t>
+  </si>
+  <si>
+    <t>インド哲学における知と行</t>
+  </si>
+  <si>
+    <t>永遠の有と転変</t>
+  </si>
+  <si>
+    <t>Puruṣa of the Sāṃkhya Philosophy and ātman of the Vedānta Philosophy</t>
+  </si>
+  <si>
+    <t>霊我とこころ</t>
+  </si>
+  <si>
+    <t>有神論サーンクヤ （Seśvara-Sāṃkhya）</t>
+  </si>
+  <si>
+    <t>金倉圓照『シャンカラの哲学　ブラフマ・スートラ釈論の全訳』上（書評）</t>
+  </si>
+  <si>
+    <t>塚本啓祥『改定増補　初期佛教　教団史の研究』（書評）</t>
+  </si>
+  <si>
+    <t>世界創造神の証明とその批判</t>
+  </si>
+  <si>
+    <t>ベゼクリクの誓願画とその仏陀観</t>
+  </si>
+  <si>
+    <t>無常観と出家志向</t>
+  </si>
+  <si>
+    <t>幸福をめぐる仏教とインド哲学諸学派との比較</t>
+  </si>
+  <si>
+    <t>インド思想史における心の問題</t>
+  </si>
+  <si>
+    <t>仏の成道以前の物語と時間について</t>
+  </si>
+  <si>
+    <t>アルスドルフ記念論文集『ジャイナ教と仏教についての諸研究』（書評）</t>
+  </si>
+  <si>
+    <t>認識から解脱への筋道</t>
+  </si>
+  <si>
+    <t>インドにおける儀礼とその批判</t>
+  </si>
+  <si>
+    <t>出家遁世考</t>
+  </si>
+  <si>
+    <t>火焔にゆらぐベゼクリク千仏洞</t>
+  </si>
+  <si>
+    <t>古代インドの身心観と仏教</t>
+  </si>
+  <si>
+    <t>ユクテｨ・デｨーピカー訳註（一）</t>
+  </si>
+  <si>
+    <t>二元論的世界観の成立とその崩壊の傾向</t>
+  </si>
+  <si>
+    <t>シュヴェーターシュヴァタラ・ウパニシャド第一章考</t>
+  </si>
+  <si>
+    <t>中村了昭『サーンクヤ哲学の研究　インドの二元論』（書評）</t>
+  </si>
+  <si>
+    <t>インド思想史における心の発見</t>
+  </si>
+  <si>
+    <r>
+      <t>Sa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ṃ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>skāra（行）考</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>サーンキヤ・ヨーガ学派の人間観</t>
+  </si>
+  <si>
+    <t>Benares-Manuscripts of the Yuktidīpikā</t>
+  </si>
+  <si>
+    <t>ヴァィシェーシカ（勝論）学派の認識論と言語表示</t>
+  </si>
+  <si>
+    <t>諸行考（I）</t>
+  </si>
+  <si>
+    <t>仏教思想研究会編『仏教思想9心』（書評）</t>
+  </si>
+  <si>
+    <t>塚本啓祥訳　ドウ・ヨング『インド文化研究史論集　欧米のマハーバーラタと仏教の研究』書評紹介と批判と補正</t>
+  </si>
+  <si>
+    <t>諸行考（II）</t>
+  </si>
+  <si>
+    <t>日本におけるインド学研究の問題点</t>
+  </si>
+  <si>
+    <t>原始仏教における信の原型</t>
+  </si>
+  <si>
+    <t>塚本啓祥著『法華経の成立と背景　インド文化と大乗仏教』（書評）</t>
+  </si>
+  <si>
+    <t>Vyomavatīにおけるsāmānya（普遍）論</t>
+  </si>
+  <si>
+    <t>ブラーフマナの人間観・神観念と仏教</t>
+  </si>
+  <si>
+    <t>サーンクヤ派の世界観と仏教</t>
+  </si>
+  <si>
+    <t>諸行考（III）</t>
+  </si>
+  <si>
+    <t>ユクティ・ディーピカー訳註（二）</t>
+  </si>
+  <si>
+    <t>智證大師圓珍に歸せられる佛陀観の意義</t>
+  </si>
+  <si>
+    <t>概念とその対象</t>
+  </si>
+  <si>
+    <t>諸行考（IV）</t>
+  </si>
+  <si>
+    <t>仏滅年代論</t>
+  </si>
+  <si>
+    <t>感官のsāmānya-jñāna（Yukti-dīpikā p.102）</t>
+  </si>
+  <si>
+    <t>インド古典にみられる村落の情景</t>
+  </si>
+  <si>
+    <t>ヴァィシェーシカ派とニヤーヤ派における無分別の直接知覚</t>
+  </si>
+  <si>
+    <t>松本照敬『ラーマーヌジャの研究』（書評）</t>
+  </si>
+  <si>
+    <t>インドの自然哲学における人間観</t>
+  </si>
+  <si>
+    <t>般若経類の空思想とウパニシャド</t>
+  </si>
+  <si>
+    <t>インド古来の文法学における語と意味をめぐる問題</t>
+  </si>
+  <si>
+    <t>原始（初期）仏教研究の一反省</t>
+  </si>
+  <si>
+    <t>色即是空（rūpaṃ śūnyatā）原意考</t>
+  </si>
+  <si>
+    <t>インド古代中世哲学における時間論</t>
+  </si>
+  <si>
+    <t>人格主体論（霊魂論）</t>
+  </si>
+  <si>
+    <t>マンダナミシユラの差別否定論と一多の否定による無自性論</t>
+  </si>
+  <si>
+    <t>真実（tattva）と不可説なもの</t>
+  </si>
+  <si>
+    <t>インド古代思想における老苦</t>
+  </si>
+  <si>
+    <t>「信を発こせ」再考</t>
+  </si>
+  <si>
+    <t>インド古代の神観念と古事記の世界</t>
+  </si>
+  <si>
+    <t>インドの主観的観念論</t>
+  </si>
+  <si>
+    <t>Pamuñcantu saddhaṃ再考</t>
+  </si>
+  <si>
+    <t>プラカーシャアーナンダの差別否定論</t>
+  </si>
+  <si>
+    <t>何が真実であるか</t>
+  </si>
+  <si>
+    <t>真実とは何か</t>
+  </si>
+  <si>
+    <t>記紀の神々とインド古代の神観念</t>
+  </si>
+  <si>
+    <t>差別と無差別（インド哲学諸学派間の論争の意味）</t>
+  </si>
+  <si>
+    <t>真実は語られるか</t>
+  </si>
+  <si>
+    <t>主観的観念論dṛṣṭi-sṛṣṭi-vādaの源泉</t>
+  </si>
+  <si>
+    <t>不二一元論学派の誤知論Anirvacanīya-khyāti</t>
+  </si>
+  <si>
+    <t>語りえぬもの</t>
+  </si>
+  <si>
+    <t>インド文化における中国意識</t>
+  </si>
+  <si>
+    <t>空性（Śūnyatā，空であること）考</t>
+  </si>
+  <si>
+    <t>PrakāśânandaからDharmarājâdhvarîndraへ</t>
+  </si>
+  <si>
+    <t>インド実在論の観念性</t>
+  </si>
+  <si>
+    <t>初期の仏教における不殺生と和平の思考</t>
+  </si>
+  <si>
+    <t>精神性（caitanya）をめぐる諸理論</t>
+  </si>
+  <si>
+    <t>精神性（caitanya）考</t>
+  </si>
+  <si>
+    <t>初期の仏教における分析的思考と人間存在</t>
+  </si>
+  <si>
+    <t>無属性梵（nirguṇa brahman）の属性（guṇa）とは何か</t>
+  </si>
+  <si>
+    <t>いのちと仏の本願</t>
+  </si>
+  <si>
+    <t>インド哲学諸派と仏教との交渉</t>
+  </si>
+  <si>
+    <t>Śrīkaṇṭhaの仏教批判</t>
+  </si>
+  <si>
+    <t>後期シャンカラ派における仏教理解</t>
+  </si>
+  <si>
+    <t>大乗経典の創作</t>
+  </si>
+  <si>
+    <t>ヴェーダーンタ諸派における縁起説批判</t>
+  </si>
+  <si>
+    <t>WHAT IS CAITANYA − ETERNAL OR NON-ETERNAL? Asiatische Studien Études Asiatiques LIII·3·1999</t>
+  </si>
+  <si>
+    <t>縁起説と無常説と多元論的分析的思考法（1）</t>
+  </si>
+  <si>
+    <t>仏教の考え方</t>
+  </si>
+  <si>
+    <t>後期シャンカラ派における部派仏教批判</t>
+  </si>
+  <si>
+    <t>A study On the Creation of the Mahāyāna Scriptures (sūtrântâbhinirhāra)</t>
+  </si>
+  <si>
+    <t>大乗経典の想像と創作（abhinirhāra考）</t>
+  </si>
+  <si>
+    <t>故神舘義朗氏の業績と学風を偲ぶ</t>
+  </si>
+  <si>
+    <t>無常（刹那滅）説と本願論</t>
+  </si>
+  <si>
+    <t>無常（刹那滅）説と仏身説（名号観）</t>
+  </si>
+  <si>
+    <t>シャンカラ研究の問題点</t>
+  </si>
+  <si>
+    <t>無常説と刹那滅説の基礎概念</t>
+  </si>
+  <si>
+    <t>無常（刹那滅）説與永遠的佛</t>
+  </si>
+  <si>
+    <t>刹那滅説の基礎</t>
+  </si>
+  <si>
+    <t>Vedāntic Interpretation and Criticism of the Buddhist Dependent Origination (pratītya-samutpāda)</t>
+  </si>
+  <si>
+    <t>A Basic Concept of the Doctrine of Momentariness</t>
+  </si>
+  <si>
+    <t>転変説（pariṇāma-vāda）再考</t>
+  </si>
+  <si>
+    <t>Vyūha （荘厳）考</t>
+  </si>
+  <si>
+    <t>無常説の根底（序説）</t>
+  </si>
+  <si>
+    <t>世親（Vasubandhu）の実在論（実有論）批判</t>
+  </si>
+  <si>
+    <t>開放系の思考</t>
+  </si>
+  <si>
+    <t>極楽の荘厳（vyūha）</t>
+  </si>
+  <si>
+    <t>大乗仏教の起原</t>
+  </si>
+  <si>
+    <t>SADĀNANDA'S CRITICISM OF BUDDHISM</t>
+  </si>
+  <si>
+    <t>説一切有部の実在論（実有論）の基盤</t>
+  </si>
+  <si>
+    <t>最初の仏語</t>
+  </si>
+  <si>
+    <t>諸法考-dhammaの原意の探求と再構築一</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Vyūha</t>
+  </si>
+  <si>
+    <t>原始仏教研究法の検討に基づく五蘊説の考察</t>
+  </si>
+  <si>
+    <t>仏教における法の意味</t>
+  </si>
+  <si>
+    <t>原始仏教資料の新古問題と法の意味</t>
+  </si>
+  <si>
+    <t>存在の把握</t>
+  </si>
+  <si>
+    <t>Early Buddhist Openness and Mahāyāna Buddhism</t>
+  </si>
+  <si>
+    <t>BUDDHISM'S UNIQUE POSSIBILITY TO PURSUE INNER PEACEFULNESS TO AVOID VIOLENCE AND WAR</t>
+  </si>
+  <si>
+    <t>"Reasons and motives for meritorious deeds" (Skt. Puṇyakriyāvastu)</t>
+  </si>
+  <si>
+    <t>殺生か禁欲か</t>
+  </si>
+  <si>
+    <t>知覚（体験）に基づく仏教か理屈（理性）に基づく仏教か</t>
+  </si>
+  <si>
+    <t>『パラマッタ・ジョーティカー』における文法的記述</t>
+  </si>
+  <si>
+    <t>原始仏教聖典の二面性</t>
+  </si>
+  <si>
+    <t>色（rūpa）は物質ではない</t>
+  </si>
+  <si>
+    <t>諸法・存在・真実</t>
+  </si>
+  <si>
+    <t>法（dharma）と存在（bhāva）と存在しているもの（sat）</t>
+  </si>
+  <si>
+    <t>日本仏教における絆の問題：原始仏教との対比</t>
+  </si>
+  <si>
+    <t>空思想の一考察</t>
+  </si>
+  <si>
+    <t>Dharma （dhamma　法）・artha（attha　義）・もの・こと</t>
+  </si>
+  <si>
+    <t>仏教における神観念</t>
+  </si>
+  <si>
+    <t>Controversies between Buddhism and Indian philosophical schools: On Caitanya (sentience</t>
+  </si>
+  <si>
+    <t>石津照璽先生の捉える存在の極相</t>
+  </si>
+  <si>
+    <t>直接知覚（現量）と超能力（神通）</t>
+  </si>
+  <si>
+    <t>空が分かると和が可能になる</t>
+  </si>
+  <si>
+    <t>涅槃</t>
+  </si>
+  <si>
+    <t>三宝</t>
+  </si>
+  <si>
+    <t>新将来の北朝鮮（高麗）仏画（小壁画）の問題と整理</t>
+  </si>
+  <si>
+    <t>高昌ベゼクリク窟寺の仏教再考</t>
+  </si>
+  <si>
+    <t>仏と神の違いの考察</t>
+  </si>
+  <si>
+    <t>南アフリカの新仏教運動 Sat Chit Anand（sac-cid-ānanda）</t>
+  </si>
+  <si>
+    <t>南アフリカの仏教初探</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,8 +1648,20 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +1839,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -675,8 +2092,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,6 +2155,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="ゲスト ユーザー" id="{00F7F7FA-563B-1345-933C-98BD74E98847}" userId="" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1052,85 +2478,1954 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F18" dT="2024-12-20T15:19:13.89" personId="{00F7F7FA-563B-1345-933C-98BD74E98847}" id="{B526C286-0D9C-2D4E-8FAD-D406B45A74A1}" done="1">
+    <text>「」不要？</text>
+  </threadedComment>
+  <threadedComment ref="F72" dT="2024-12-21T03:51:02.31" personId="{00F7F7FA-563B-1345-933C-98BD74E98847}" id="{015B2A4B-DB46-884C-AA3D-EB5A29E6397F}">
+    <text>「バハ」の「ハ」は捨仮名</text>
+  </threadedComment>
+  <threadedComment ref="F117" dT="2024-12-20T15:11:59.86" personId="{00F7F7FA-563B-1345-933C-98BD74E98847}" id="{9AC97B73-A3F0-224F-8857-3FF8E2FBB2AC}" done="1">
+    <text>「ィ ー」を「ィー」に。（不要なスペースが入っている）</text>
+  </threadedComment>
+  <threadedComment ref="F124" dT="2024-12-21T04:18:07.37" personId="{00F7F7FA-563B-1345-933C-98BD74E98847}" id="{3B3AB69A-7BD9-F349-B0C4-03D23E669FED}" done="1">
+    <text>「ヴ ァ」に不要スペースあり</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC634F0-CBD9-F441-A3A8-06CCB42A8601}">
-  <dimension ref="A1:U1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC634F0-CBD9-F441-A3A8-06CCB42A8601}">
+  <dimension ref="A1:U228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col min="6" max="6" width="89.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>96</v>
+      </c>
+      <c r="F77" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" t="s">
+        <v>323</v>
+      </c>
+      <c r="H78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="F82" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="F84" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F86" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F87" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>108</v>
+      </c>
+      <c r="F89" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="F90" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="F92" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="F93" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>113</v>
+      </c>
+      <c r="F94" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>115</v>
+      </c>
+      <c r="F96" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>116</v>
+      </c>
+      <c r="F97" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>117</v>
+      </c>
+      <c r="F98" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>118</v>
+      </c>
+      <c r="F99" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>119</v>
+      </c>
+      <c r="F100" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+      <c r="F101" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>121</v>
+      </c>
+      <c r="F102" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+      <c r="F103" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+      <c r="F104" t="s">
+        <v>347</v>
+      </c>
+      <c r="H104" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>125</v>
+      </c>
+      <c r="F106" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="F109" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="F110" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>130</v>
+      </c>
+      <c r="F111" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>131</v>
+      </c>
+      <c r="F112" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>132</v>
+      </c>
+      <c r="F113" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>133</v>
+      </c>
+      <c r="F114" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>134</v>
+      </c>
+      <c r="F115" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>135</v>
+      </c>
+      <c r="F116" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="F117" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>137</v>
+      </c>
+      <c r="F118" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>138</v>
+      </c>
+      <c r="F119" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>139</v>
+      </c>
+      <c r="F120" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="F121" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>141</v>
+      </c>
+      <c r="F122" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>142</v>
+      </c>
+      <c r="F123" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>143</v>
+      </c>
+      <c r="F124" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>144</v>
+      </c>
+      <c r="F125" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="F126" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>146</v>
+      </c>
+      <c r="F127" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>147</v>
+      </c>
+      <c r="F128" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>148</v>
+      </c>
+      <c r="F129" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="F130" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>150</v>
+      </c>
+      <c r="F131" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>151</v>
+      </c>
+      <c r="F132" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>152</v>
+      </c>
+      <c r="F133" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>153</v>
+      </c>
+      <c r="F134" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>154</v>
+      </c>
+      <c r="F135" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>155</v>
+      </c>
+      <c r="F136" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>156</v>
+      </c>
+      <c r="F137" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>157</v>
+      </c>
+      <c r="F138" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>158</v>
+      </c>
+      <c r="F139" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+      <c r="F140" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>160</v>
+      </c>
+      <c r="F141" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>161</v>
+      </c>
+      <c r="F142" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>162</v>
+      </c>
+      <c r="F143" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>163</v>
+      </c>
+      <c r="F144" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>164</v>
+      </c>
+      <c r="F145" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>165</v>
+      </c>
+      <c r="F146" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>166</v>
+      </c>
+      <c r="F147" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>167</v>
+      </c>
+      <c r="F148" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>168</v>
+      </c>
+      <c r="F149" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>170</v>
+      </c>
+      <c r="F151" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>171</v>
+      </c>
+      <c r="F152" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>172</v>
+      </c>
+      <c r="F153" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+      <c r="F154" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>174</v>
+      </c>
+      <c r="F155" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>175</v>
+      </c>
+      <c r="F156" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>176</v>
+      </c>
+      <c r="F157" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>177</v>
+      </c>
+      <c r="F158" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>178</v>
+      </c>
+      <c r="F159" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>179</v>
+      </c>
+      <c r="F160" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>180</v>
+      </c>
+      <c r="F161" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>181</v>
+      </c>
+      <c r="F162" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>182</v>
+      </c>
+      <c r="F163" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>183</v>
+      </c>
+      <c r="F164" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>184</v>
+      </c>
+      <c r="F165" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>185</v>
+      </c>
+      <c r="F166" t="s">
+        <v>407</v>
+      </c>
+      <c r="H166" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>186</v>
+      </c>
+      <c r="F167" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>187</v>
+      </c>
+      <c r="F168" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>188</v>
+      </c>
+      <c r="F169" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>189</v>
+      </c>
+      <c r="F170" t="s">
+        <v>411</v>
+      </c>
+      <c r="H170" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>190</v>
+      </c>
+      <c r="F171" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>191</v>
+      </c>
+      <c r="F172" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>192</v>
+      </c>
+      <c r="F173" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>193</v>
+      </c>
+      <c r="F174" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>194</v>
+      </c>
+      <c r="F175" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>195</v>
+      </c>
+      <c r="F176" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>196</v>
+      </c>
+      <c r="F177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>197</v>
+      </c>
+      <c r="F178" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>198</v>
+      </c>
+      <c r="F179" t="s">
+        <v>420</v>
+      </c>
+      <c r="H179" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>199</v>
+      </c>
+      <c r="F180" t="s">
+        <v>421</v>
+      </c>
+      <c r="H180" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>200</v>
+      </c>
+      <c r="F181" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>201</v>
+      </c>
+      <c r="F182" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>202</v>
+      </c>
+      <c r="F183" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>203</v>
+      </c>
+      <c r="F184" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>204</v>
+      </c>
+      <c r="F185" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>205</v>
+      </c>
+      <c r="F186" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>206</v>
+      </c>
+      <c r="F187" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>207</v>
+      </c>
+      <c r="F188" t="s">
+        <v>429</v>
+      </c>
+      <c r="H188" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>208</v>
+      </c>
+      <c r="F189" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>209</v>
+      </c>
+      <c r="F190" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>210</v>
+      </c>
+      <c r="F191" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>211</v>
+      </c>
+      <c r="F192" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>212</v>
+      </c>
+      <c r="F193" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>213</v>
+      </c>
+      <c r="F194" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>214</v>
+      </c>
+      <c r="F195" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>215</v>
+      </c>
+      <c r="F196" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>216</v>
+      </c>
+      <c r="F197" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>217</v>
+      </c>
+      <c r="F198" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>218</v>
+      </c>
+      <c r="F199" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>219</v>
+      </c>
+      <c r="F200" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>220</v>
+      </c>
+      <c r="F201" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>221</v>
+      </c>
+      <c r="F202" t="s">
+        <v>439</v>
+      </c>
+      <c r="H202" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>222</v>
+      </c>
+      <c r="F203" t="s">
+        <v>440</v>
+      </c>
+      <c r="H203" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>223</v>
+      </c>
+      <c r="F204" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>224</v>
+      </c>
+      <c r="F205" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>225</v>
+      </c>
+      <c r="F206" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>226</v>
+      </c>
+      <c r="F207" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>227</v>
+      </c>
+      <c r="F208" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>228</v>
+      </c>
+      <c r="F209" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>229</v>
+      </c>
+      <c r="F210" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>230</v>
+      </c>
+      <c r="F211" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>231</v>
+      </c>
+      <c r="F212" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>232</v>
+      </c>
+      <c r="F213" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>233</v>
+      </c>
+      <c r="F214" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>234</v>
+      </c>
+      <c r="F215" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>235</v>
+      </c>
+      <c r="F216" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>236</v>
+      </c>
+      <c r="F217" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>237</v>
+      </c>
+      <c r="F218" t="s">
+        <v>452</v>
+      </c>
+      <c r="H218" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>238</v>
+      </c>
+      <c r="F219" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>239</v>
+      </c>
+      <c r="F220" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" t="s">
+        <v>240</v>
+      </c>
+      <c r="F221" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" t="s">
+        <v>241</v>
+      </c>
+      <c r="F222" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>242</v>
+      </c>
+      <c r="F223" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>243</v>
+      </c>
+      <c r="F224" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>244</v>
+      </c>
+      <c r="F225" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>245</v>
+      </c>
+      <c r="F226" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>246</v>
+      </c>
+      <c r="F227" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>247</v>
+      </c>
+      <c r="F228" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/master-1.xlsx
+++ b/data/master-1.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogwata/dev/pub-support/murakami-shinkan/works/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{812E9195-5318-DA41-9013-3415B290E2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8F3472CC-EC03-F446-890E-94A416913864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="36840" windowHeight="28300" xr2:uid="{9127189E-5329-9E46-BAE5-6A2FB8839EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="master-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -65,15 +78,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="467">
   <si>
     <t>ProjectID</t>
   </si>
   <si>
     <t>GyosekiNo</t>
-  </si>
-  <si>
-    <t>DataSource</t>
   </si>
   <si>
     <t>WorkType</t>
@@ -1482,6 +1492,23 @@
   </si>
   <si>
     <t>南アフリカの仏教初探</t>
+  </si>
+  <si>
+    <t>DataSource</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>村上 真完</t>
+  </si>
+  <si>
+    <t>Keyword 1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Keyword 2</t>
+  </si>
+  <si>
+    <t>Keyword 3</t>
   </si>
 </sst>
 </file>
@@ -2497,11 +2524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC634F0-CBD9-F441-A3A8-06CCB42A8601}">
-  <dimension ref="A1:U228"/>
+  <dimension ref="A1:X228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2511,7 +2538,7 @@
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2519,1907 +2546,2597 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+      <c r="I3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
+      <c r="I5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
+      <c r="I6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
+      <c r="I7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
+      <c r="I8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
+      <c r="I9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
+      <c r="I10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
+      <c r="I11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
+      <c r="I12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
+      <c r="I13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
+      <c r="I14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
+      <c r="I15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
+      <c r="I16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="I17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="I18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="I19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="I20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="I21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="I22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="I23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="I24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="I25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="I26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="I27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="I28" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="I29" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="I30" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="I31" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="I32" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="I33" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>52</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="I34" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+      <c r="I35" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="I36" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="I37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+      <c r="I38" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
         <v>57</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="I39" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
         <v>58</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="I40" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="I41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
         <v>60</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="I42" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
         <v>61</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="I43" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="I44" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
         <v>63</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+      <c r="I45" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+      <c r="I46" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
         <v>65</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+      <c r="I47" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
         <v>66</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+      <c r="I48" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
         <v>67</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+      <c r="I49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
         <v>68</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+      <c r="I50" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
         <v>69</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
+      <c r="I51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
         <v>70</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
+      <c r="I52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
         <v>71</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
+      <c r="I53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
         <v>72</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
+      <c r="I54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
         <v>73</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
+      <c r="I55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
         <v>74</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
+      <c r="I56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
         <v>75</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
+      <c r="I57" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
         <v>76</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
+      <c r="I58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
         <v>77</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
+      <c r="I59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
         <v>78</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
+      <c r="I60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
+      <c r="I61" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
         <v>80</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
+      <c r="I62" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
         <v>81</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
+      <c r="I63" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
         <v>82</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
+      <c r="I64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
         <v>83</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
+      <c r="I65" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
         <v>84</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
+      <c r="I66" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
         <v>85</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
+      <c r="I67" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
         <v>86</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
+      <c r="I68" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
         <v>87</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
+      <c r="I69" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
         <v>88</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F70" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
+      <c r="I70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
         <v>89</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
+      <c r="I71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
         <v>90</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
+      <c r="I72" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
         <v>91</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
+      <c r="I73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
         <v>92</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
+      <c r="I74" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
         <v>93</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F75" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
+      <c r="I75" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
         <v>94</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
+      <c r="I76" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
         <v>95</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
+      <c r="I77" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
         <v>96</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
+      <c r="H78" t="s">
+        <v>322</v>
+      </c>
+      <c r="I78" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
         <v>97</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
+        <v>313</v>
+      </c>
+      <c r="I79" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" t="s">
         <v>323</v>
       </c>
-      <c r="H78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>98</v>
-      </c>
-      <c r="F79" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
+      <c r="I80" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
         <v>99</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
+      <c r="I81" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
         <v>100</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
+      <c r="I82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
         <v>101</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
+      <c r="I83" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
         <v>102</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
+      <c r="I84" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
         <v>103</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
+      <c r="I85" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
         <v>104</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
+      <c r="I86" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
         <v>105</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F87" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
+      <c r="I87" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
         <v>106</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F88" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
+      <c r="I88" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
         <v>107</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
+      <c r="I89" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
         <v>108</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
+      <c r="I90" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
         <v>109</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F91" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
+      <c r="I91" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
         <v>110</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F92" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
+      <c r="I92" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
         <v>111</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
+      <c r="I93" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
         <v>112</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F94" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
+      <c r="I94" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
         <v>113</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
+      <c r="I95" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
         <v>114</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
+      <c r="I96" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
         <v>115</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
+      <c r="I97" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
         <v>116</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F98" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
+      <c r="I98" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
         <v>117</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F99" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
+      <c r="I99" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
         <v>118</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F100" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
+      <c r="I100" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
         <v>119</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F101" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
+      <c r="I101" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
         <v>120</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" t="s">
+        <v>343</v>
+      </c>
+      <c r="I102" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>121</v>
+      </c>
+      <c r="F103" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>121</v>
-      </c>
-      <c r="F102" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
+      <c r="I103" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
         <v>122</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F104" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
+      <c r="H104" t="s">
+        <v>346</v>
+      </c>
+      <c r="I104" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
         <v>123</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F105" t="s">
         <v>347</v>
       </c>
-      <c r="H104" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
+      <c r="I105" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
         <v>124</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F106" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
+      <c r="I106" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
         <v>125</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F107" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
+      <c r="I107" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
         <v>126</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
+      <c r="I108" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
         <v>127</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F109" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
+      <c r="I109" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
         <v>128</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F110" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
+      <c r="I110" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
         <v>129</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F111" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
+      <c r="I111" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
         <v>130</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F112" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
+      <c r="I112" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
         <v>131</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
+      <c r="I113" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
         <v>132</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F114" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
+      <c r="I114" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
         <v>133</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F115" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
+      <c r="I115" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
         <v>134</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F116" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
+      <c r="I116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
         <v>135</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F117" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
+      <c r="I117" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
         <v>136</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F118" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
+      <c r="I118" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
         <v>137</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F119" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
+      <c r="I119" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
         <v>138</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F120" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
+      <c r="I120" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
         <v>139</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
+      <c r="I121" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
         <v>140</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F122" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
+      <c r="I122" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
         <v>141</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F123" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
+      <c r="I123" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
         <v>142</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F124" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
+      <c r="I124" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
         <v>143</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F125" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
+      <c r="I125" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
         <v>144</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F126" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" t="s">
+      <c r="I126" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
         <v>145</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F127" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" t="s">
+      <c r="I127" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
         <v>146</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F128" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" t="s">
+      <c r="I128" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
         <v>147</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F129" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
+      <c r="I129" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
         <v>148</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F130" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
+      <c r="I130" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
         <v>149</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F131" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" t="s">
+      <c r="I131" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
         <v>150</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F132" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" t="s">
+      <c r="I132" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
         <v>151</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F133" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" t="s">
+      <c r="I133" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
         <v>152</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F134" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" t="s">
+      <c r="I134" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
         <v>153</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F135" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" t="s">
+      <c r="I135" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
         <v>154</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F136" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
+      <c r="I136" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
         <v>155</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F137" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
+      <c r="I137" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
         <v>156</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F138" t="s">
+        <v>374</v>
+      </c>
+      <c r="I138" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>157</v>
+      </c>
+      <c r="F139" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" t="s">
-        <v>157</v>
-      </c>
-      <c r="F138" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" t="s">
+      <c r="I139" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
         <v>158</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F140" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
+      <c r="I140" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
         <v>159</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F141" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
+      <c r="I141" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
         <v>160</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F142" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" t="s">
+      <c r="I142" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
         <v>161</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F143" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
+      <c r="I143" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
         <v>162</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F144" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
+      <c r="I144" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
         <v>163</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F145" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" t="s">
+      <c r="I145" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
         <v>164</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F146" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" t="s">
+      <c r="I146" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
         <v>165</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F147" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" t="s">
+      <c r="I147" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
         <v>166</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F148" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" t="s">
+      <c r="I148" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
         <v>167</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F149" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" t="s">
+      <c r="I149" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
         <v>168</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F150" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" t="s">
+      <c r="I150" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
         <v>169</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F151" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" t="s">
+      <c r="I151" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
         <v>170</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F152" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" t="s">
+      <c r="I152" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
         <v>171</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F153" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" t="s">
+      <c r="I153" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
         <v>172</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F154" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" t="s">
+      <c r="I154" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
         <v>173</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F155" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" t="s">
+      <c r="I155" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
         <v>174</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F156" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" t="s">
+      <c r="I156" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
         <v>175</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F157" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" t="s">
+      <c r="I157" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
         <v>176</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F158" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" t="s">
+      <c r="I158" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
         <v>177</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F159" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" t="s">
+      <c r="I159" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
         <v>178</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F160" t="s">
+        <v>400</v>
+      </c>
+      <c r="I160" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>179</v>
+      </c>
+      <c r="F161" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" t="s">
-        <v>179</v>
-      </c>
-      <c r="F160" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" t="s">
+      <c r="I161" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
         <v>180</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F162" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
+      <c r="I162" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
         <v>181</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F163" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
+      <c r="I163" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
         <v>182</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F164" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
+      <c r="I164" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
         <v>183</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F165" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="s">
+      <c r="I165" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
         <v>184</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F166" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
+      <c r="H166" t="s">
+        <v>406</v>
+      </c>
+      <c r="I166" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
         <v>185</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F167" t="s">
         <v>407</v>
       </c>
-      <c r="H166" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
+      <c r="I167" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
         <v>186</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F168" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" t="s">
+      <c r="I168" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
         <v>187</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F169" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
+      <c r="I169" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
         <v>188</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F170" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
+      <c r="H170" t="s">
+        <v>410</v>
+      </c>
+      <c r="I170" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
         <v>189</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F171" t="s">
         <v>411</v>
       </c>
-      <c r="H170" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
+      <c r="I171" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
         <v>190</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F172" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
+      <c r="I172" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
         <v>191</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F173" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
+      <c r="I173" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
         <v>192</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F174" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
+      <c r="I174" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
         <v>193</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F175" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
+      <c r="I175" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
         <v>194</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F176" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="s">
+      <c r="I176" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
         <v>195</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F177" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
+      <c r="I177" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
         <v>196</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F178" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
+      <c r="I178" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
         <v>197</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F179" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
+      <c r="H179" t="s">
+        <v>419</v>
+      </c>
+      <c r="I179" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
         <v>198</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F180" t="s">
         <v>420</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H180" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
+      <c r="I180" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
         <v>199</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F181" t="s">
         <v>421</v>
       </c>
-      <c r="H180" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="s">
+      <c r="I181" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
         <v>200</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F182" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="s">
+      <c r="I182" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
         <v>201</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F183" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
+      <c r="I183" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
         <v>202</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F184" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
+      <c r="I184" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
         <v>203</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F185" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" t="s">
+      <c r="I185" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
         <v>204</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F186" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
+      <c r="I186" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
         <v>205</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F187" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" t="s">
+      <c r="I187" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
         <v>206</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F188" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="s">
+      <c r="H188" t="s">
+        <v>428</v>
+      </c>
+      <c r="I188" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
         <v>207</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F189" t="s">
         <v>429</v>
       </c>
-      <c r="H188" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
+      <c r="I189" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
         <v>208</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F190" t="s">
+        <v>425</v>
+      </c>
+      <c r="I190" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>209</v>
+      </c>
+      <c r="F191" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" t="s">
-        <v>209</v>
-      </c>
-      <c r="F190" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" t="s">
+      <c r="I191" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
         <v>210</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F192" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
+      <c r="I192" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
         <v>211</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F193" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
+      <c r="I193" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
         <v>212</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F194" t="s">
+        <v>431</v>
+      </c>
+      <c r="I194" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>213</v>
+      </c>
+      <c r="F195" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" t="s">
-        <v>213</v>
-      </c>
-      <c r="F194" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" t="s">
+      <c r="I195" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
         <v>214</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F196" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
+      <c r="I196" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
         <v>215</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F197" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" t="s">
+      <c r="I197" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
         <v>216</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F198" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" t="s">
+      <c r="I198" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
         <v>217</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F199" t="s">
+        <v>431</v>
+      </c>
+      <c r="I199" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>218</v>
+      </c>
+      <c r="F200" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>218</v>
-      </c>
-      <c r="F199" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" t="s">
+      <c r="I200" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
         <v>219</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F201" t="s">
+        <v>431</v>
+      </c>
+      <c r="I201" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>220</v>
+      </c>
+      <c r="F202" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>220</v>
-      </c>
-      <c r="F201" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
+      <c r="H202" t="s">
+        <v>438</v>
+      </c>
+      <c r="I202" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
         <v>221</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F203" t="s">
         <v>439</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H203" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
+      <c r="I203" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
         <v>222</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F204" t="s">
         <v>440</v>
       </c>
-      <c r="H203" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
+      <c r="I204" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
         <v>223</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F205" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
+      <c r="I205" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
         <v>224</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F206" t="s">
+        <v>431</v>
+      </c>
+      <c r="I206" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>225</v>
+      </c>
+      <c r="F207" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
-        <v>225</v>
-      </c>
-      <c r="F206" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" t="s">
+      <c r="I207" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
         <v>226</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F208" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" t="s">
+      <c r="I208" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
         <v>227</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F209" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
+      <c r="I209" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
         <v>228</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F210" t="s">
+        <v>431</v>
+      </c>
+      <c r="I210" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>229</v>
+      </c>
+      <c r="F211" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" t="s">
-        <v>229</v>
-      </c>
-      <c r="F210" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" t="s">
+      <c r="I211" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
         <v>230</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F212" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
+      <c r="I212" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
         <v>231</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F213" t="s">
+        <v>431</v>
+      </c>
+      <c r="I213" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>232</v>
+      </c>
+      <c r="F214" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" t="s">
-        <v>232</v>
-      </c>
-      <c r="F213" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" t="s">
+      <c r="I214" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
         <v>233</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F215" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" t="s">
+      <c r="I215" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
         <v>234</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F216" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" t="s">
+      <c r="I216" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
         <v>235</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F217" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" t="s">
+      <c r="I217" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
         <v>236</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F218" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" t="s">
+      <c r="H218" t="s">
+        <v>451</v>
+      </c>
+      <c r="I218" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
         <v>237</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F219" t="s">
         <v>452</v>
       </c>
-      <c r="H218" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" t="s">
+      <c r="I219" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
         <v>238</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F220" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" t="s">
+      <c r="I220" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
         <v>239</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F221" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" t="s">
+      <c r="I221" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
         <v>240</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F222" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" t="s">
+      <c r="I222" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
         <v>241</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F223" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" t="s">
+      <c r="I223" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
         <v>242</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F224" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" t="s">
+      <c r="I224" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
         <v>243</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F225" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" t="s">
+      <c r="I225" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
         <v>244</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F226" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" t="s">
+      <c r="I226" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
         <v>245</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F227" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" t="s">
+      <c r="I227" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
         <v>246</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F228" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" t="s">
-        <v>247</v>
-      </c>
-      <c r="F228" t="s">
-        <v>462</v>
+      <c r="I228" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
